--- a/validation.xlsx
+++ b/validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gauravmolugu/Downloads/Spring24/12770/Project/buildsys_dampers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19A34FB-18CD-0746-BE5C-8060D4E0A22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8643B17-8F59-4442-9A1D-E39D27566A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{18D3AEDB-5642-3743-BACB-C46A5AD85E56}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -448,7 +448,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.85069444444444453</v>
+        <v>0.84375</v>
       </c>
       <c r="B2">
         <v>34</v>
@@ -503,7 +503,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,7 +734,7 @@
         <v>0.83888888888888891</v>
       </c>
       <c r="B14">
-        <v>35.47</v>
+        <v>35.5</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -758,6 +758,9 @@
       </c>
       <c r="D15">
         <v>0</v>
+      </c>
+      <c r="E15">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
